--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed4/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.368</v>
+        <v>12.932</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.296</v>
+        <v>12.932</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.396</v>
+        <v>13.165</v>
       </c>
     </row>
     <row r="6">
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.024</v>
+        <v>-11.899</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.396</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.01</v>
+        <v>-12.201</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -706,7 +706,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.834</v>
+        <v>-12.439</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.326</v>
+        <v>-12.362</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.588</v>
+        <v>-12.732</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.498</v>
+        <v>13.166</v>
       </c>
     </row>
     <row r="22">
